--- a/source.xlsx
+++ b/source.xlsx
@@ -374,6 +374,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/source.xlsx
+++ b/source.xlsx
@@ -32,6 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0.0000000000000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,8 +65,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,12 +376,14 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -403,7 +411,11 @@
         <f>((-1^(A2+1))*($B$2^2)*(4^(4*A2+2))/((3^(4*A2+2))*FACT(2*A2+1)))</f>
         <v>0.9364426154549611</v>
       </c>
-      <c r="E2">
+      <c r="D2">
+        <f>$C$2</f>
+        <v>0.9364426154549611</v>
+      </c>
+      <c r="E2" s="1">
         <f>SUM(C2:C56)</f>
         <v>0.79912207331194085</v>
       </c>
@@ -417,6 +429,10 @@
         <f t="shared" ref="C3:C56" si="0">((-1^(A3+1))*($B$2^2)*(4^(4*A3+2))/((3^(4*A3+2))*FACT(2*A3+1)))</f>
         <v>-0.14798105528177163</v>
       </c>
+      <c r="D3" s="2">
+        <f>D2+C3</f>
+        <v>0.78846156017318947</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -427,6 +443,10 @@
         <f t="shared" si="0"/>
         <v>1.1135552660827025E-2</v>
       </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D56" si="2">D3+C4</f>
+        <v>0.79959711283401647</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -437,6 +457,10 @@
         <f t="shared" si="0"/>
         <v>-4.8880340898006141E-4</v>
       </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79910830942503641</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -447,6 +471,10 @@
         <f t="shared" si="0"/>
         <v>1.4044183243422641E-5</v>
       </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912235360827988</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -457,6 +485,10 @@
         <f t="shared" si="0"/>
         <v>-2.845291951817186E-7</v>
       </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912206907908467</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -467,6 +499,10 @@
         <f t="shared" si="0"/>
         <v>4.2821560238988807E-9</v>
       </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207336124075</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -477,6 +513,10 @@
         <f t="shared" si="0"/>
         <v>-4.9756351766435795E-11</v>
       </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331148444</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -487,6 +527,10 @@
         <f t="shared" si="0"/>
         <v>4.5980889654925876E-13</v>
       </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194429</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -497,6 +541,10 @@
         <f t="shared" si="0"/>
         <v>-3.4600551886128813E-15</v>
       </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -507,6 +555,10 @@
         <f t="shared" si="0"/>
         <v>2.1611626611157407E-17</v>
       </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -517,6 +569,10 @@
         <f t="shared" si="0"/>
         <v>-1.138390208324341E-19</v>
       </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -527,6 +583,10 @@
         <f t="shared" si="0"/>
         <v>5.1251783850555957E-22</v>
       </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -537,6 +597,10 @@
         <f t="shared" si="0"/>
         <v>-1.9948392424956406E-24</v>
       </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -547,8 +611,12 @@
         <f t="shared" si="0"/>
         <v>6.7792227011666513E-27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -557,8 +625,12 @@
         <f t="shared" si="0"/>
         <v>-2.0289480587105572E-29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -567,8 +639,12 @@
         <f t="shared" si="0"/>
         <v>5.388636819482342E-32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -577,8 +653,12 @@
         <f t="shared" si="0"/>
         <v>-1.2785850904492264E-34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -587,8 +667,12 @@
         <f t="shared" si="0"/>
         <v>2.7266938501108106E-37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -597,8 +681,12 @@
         <f t="shared" si="0"/>
         <v>-5.2546945620925003E-40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -607,8 +695,12 @@
         <f t="shared" si="0"/>
         <v>9.1956975233151468E-43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -617,8 +709,12 @@
         <f t="shared" si="0"/>
         <v>-1.467825518124877E-45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -627,8 +723,12 @@
         <f t="shared" si="0"/>
         <v>2.1457231680769315E-48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -637,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>-2.883309875638776E-51</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -647,8 +751,12 @@
         <f t="shared" si="0"/>
         <v>3.5736012014695094E-54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -657,8 +765,12 @@
         <f t="shared" si="0"/>
         <v>-4.0980930834461933E-57</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -667,8 +779,12 @@
         <f t="shared" si="0"/>
         <v>4.3609420516366381E-60</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -677,8 +793,12 @@
         <f t="shared" si="0"/>
         <v>-4.3178980058904132E-63</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -687,8 +807,12 @@
         <f t="shared" si="0"/>
         <v>3.9879281104398778E-66</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -697,8 +821,12 @@
         <f t="shared" si="0"/>
         <v>-3.4436672612582099E-69</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -707,8 +835,12 @@
         <f t="shared" si="0"/>
         <v>2.7864027450080014E-72</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -717,8 +849,12 @@
         <f t="shared" si="0"/>
         <v>-2.116925162399241E-75</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -727,8 +863,12 @@
         <f t="shared" si="0"/>
         <v>1.5130097033748359E-78</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -737,8 +877,12 @@
         <f t="shared" si="0"/>
         <v>-1.0191512847293483E-81</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -747,8 +891,12 @@
         <f t="shared" si="0"/>
         <v>6.480928258208835E-85</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -757,8 +905,12 @@
         <f t="shared" si="0"/>
         <v>-3.897057411403925E-88</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -767,8 +919,12 @@
         <f t="shared" si="0"/>
         <v>2.2192118725823706E-91</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -777,8 +933,12 @@
         <f t="shared" si="0"/>
         <v>-1.1985313438923211E-94</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -787,8 +947,12 @@
         <f t="shared" si="0"/>
         <v>6.1472750957969022E-98</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -797,8 +961,12 @@
         <f t="shared" si="0"/>
         <v>-2.9982137336610419E-101</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -807,8 +975,12 @@
         <f t="shared" si="0"/>
         <v>1.3922768142438344E-104</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -817,8 +989,12 @@
         <f t="shared" si="0"/>
         <v>-6.1628603320956846E-108</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -827,8 +1003,12 @@
         <f t="shared" si="0"/>
         <v>2.6032721247314467E-111</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -837,8 +1017,12 @@
         <f t="shared" si="0"/>
         <v>-1.0505139786303261E-114</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -847,8 +1031,12 @@
         <f t="shared" si="0"/>
         <v>4.0538985895078838E-118</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -857,8 +1045,12 @@
         <f t="shared" si="0"/>
         <v>-1.4974662772410365E-121</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -867,8 +1059,12 @@
         <f t="shared" si="0"/>
         <v>5.2998129066083959E-125</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -877,8 +1073,12 @@
         <f t="shared" si="0"/>
         <v>-1.7987570850989421E-128</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -887,8 +1087,12 @@
         <f t="shared" si="0"/>
         <v>5.8595760297015166E-132</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -897,8 +1101,12 @@
         <f t="shared" si="0"/>
         <v>-1.8335795912523994E-135</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -907,8 +1115,12 @@
         <f t="shared" si="0"/>
         <v>5.5159118406250446E-139</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -917,8 +1129,12 @@
         <f t="shared" si="0"/>
         <v>-1.5964290589246267E-142</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -927,8 +1143,12 @@
         <f t="shared" si="0"/>
         <v>4.4485136538802005E-146</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -937,8 +1157,12 @@
         <f t="shared" si="0"/>
         <v>-1.1943170186142997E-149</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -946,6 +1170,10 @@
       <c r="C56">
         <f t="shared" si="0"/>
         <v>3.0914263431639778E-153</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79912207331194085</v>
       </c>
     </row>
   </sheetData>
